--- a/utils/datas/Wak'Team.xlsx
+++ b/utils/datas/Wak'Team.xlsx
@@ -8,15 +8,16 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Notes!$A$1:$X$71</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Rôles'!$A$1:$B$72</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="173">
   <si>
-    <t>Notes des classes de 0 a 5 en fonction des paramêtres suivant</t>
+    <t>Notes des classes de 0 a 4 en fonction des paramêtres suivant</t>
   </si>
   <si>
     <t>Melee</t>
@@ -46,7 +47,7 @@
     <t>Protection</t>
   </si>
   <si>
-    <t>Placeur</t>
+    <t>Positioning</t>
   </si>
   <si>
     <t>Buff_AP</t>
@@ -100,7 +101,7 @@
     <t>Cra.DPT Ranged Single Target</t>
   </si>
   <si>
-    <t>Cra.Support Utilitaire</t>
+    <t>Cra.Support Utilitary</t>
   </si>
   <si>
     <t>Ecaflip.DPT Elementary</t>
@@ -151,7 +152,7 @@
     <t>Enutrof.DPT Melee</t>
   </si>
   <si>
-    <t>Enutrof.Support Utilitaire</t>
+    <t>Enutrof.Support Utilitary</t>
   </si>
   <si>
     <t>Feca.DPT Glyph Ranged</t>
@@ -178,7 +179,7 @@
     <t>Huppermage.Support Heal</t>
   </si>
   <si>
-    <t>Huppermage.Support Utilitaire</t>
+    <t>Huppermage.Support Utilitary</t>
   </si>
   <si>
     <t>Iop.DPT Melee Area</t>
@@ -187,13 +188,13 @@
     <t>Iop.DPT Melee Single Target</t>
   </si>
   <si>
-    <t>Iop.Support Utilitaire</t>
+    <t>Iop.Support Utilitary</t>
   </si>
   <si>
     <t>Masqueraider.DPT Melee</t>
   </si>
   <si>
-    <t>Masqueraider.Specific Distribution Heal</t>
+    <t>Masqueraiedr.Specific Distribution Heal</t>
   </si>
   <si>
     <t>Masqueraider.Support Heal</t>
@@ -223,7 +224,7 @@
     <t>Osamodas.Support Placeur</t>
   </si>
   <si>
-    <t>Osamodas.Support Utilitaire</t>
+    <t>Osamodas.Support Utilitary</t>
   </si>
   <si>
     <t>Ouginak.DPT Melee</t>
@@ -232,7 +233,7 @@
     <t>Ouginak.DPT Indirect</t>
   </si>
   <si>
-    <t>Ouginak.Support Utilitaire</t>
+    <t>Ouginak.Support Utilitary</t>
   </si>
   <si>
     <t>Pandawa.DPT Melee</t>
@@ -253,7 +254,7 @@
     <t>Rogue.DPT Mixed</t>
   </si>
   <si>
-    <t>Rogue.Support Utilitaire</t>
+    <t>Rogue.Support Utilitary</t>
   </si>
   <si>
     <t>Sacrier.DPT Flame</t>
@@ -322,379 +323,217 @@
     <t>Xelor.Support Placeur</t>
   </si>
   <si>
-    <t>Xelor.Support Utilitaire</t>
+    <t>Xelor.Support Utilitary</t>
   </si>
   <si>
-    <t>Classe</t>
+    <t>Classes</t>
   </si>
   <si>
     <t>Rôles</t>
   </si>
   <si>
-    <t>Xelor dpt</t>
+    <t>Constant, SIngle Target, Ranged, Buff PO, Rall PO, Anti Heal, Enemy Stabilized, Allies Stabilized</t>
   </si>
   <si>
-    <t xml:space="preserve">Area, Burst, Single Target, Ranged, Buff AP, Sub Placeur, Self Stabilized </t>
+    <t>Constant, Area, Burst, Ranged, Buff PO, Rall PO, Anti Heal, Enemy Stabilized, Allies Stabilized</t>
   </si>
   <si>
-    <t>Xelor indirect</t>
+    <t>Buff PO,  Rall PO, Sub Positioning, Anti Shield, Anti Heal, Enemy Stabilized, Allies Stabilized</t>
   </si>
   <si>
-    <t xml:space="preserve">Area, Burst, Single Target, Ranged, Buff AP, Rall AP, Sub Placeur, Self Stabilized, Indirect </t>
+    <t>Constant, Single Target, Melee, Ranged, Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection , Sub Heal, Self Stabilized, Sub Positioning</t>
   </si>
   <si>
-    <t>Xelor rouage</t>
+    <t>Constant, Single Target, Melee, Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection, Sub Positioning</t>
   </si>
   <si>
-    <t>Xelor Placeur</t>
+    <t xml:space="preserve">Constant, Single Target, Ranged, Buff MP, Buff Crit, Rall Resistance, Resurection, Sub Heal, Self Stabilized, Sub Positioning </t>
   </si>
   <si>
-    <t xml:space="preserve">Buff AP, Placeur, Self Stabilized </t>
+    <t>Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection, Heal, Shield</t>
   </si>
   <si>
-    <t>Sadida Poison</t>
+    <t>Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection, Heal</t>
+  </si>
+  <si>
+    <t>Area, Burst, Single Target, Melee, Ranged, Enemy Stabilized, Allies Stabilized, Sub Positioning</t>
+  </si>
+  <si>
+    <t>Area, Burst, Single Target, Melee, Enemy Stabilized, Allies Stabilized, Sub Positioning</t>
+  </si>
+  <si>
+    <t>Area, Burst, Single Target, Ranged, Enemy Stabilized, Allies Stabilized, Sub Positioning</t>
+  </si>
+  <si>
+    <t>Buff AP, Buff MP, Sub Heal, Enemy Stabilized, Allies Stabilized, Positioning</t>
+  </si>
+  <si>
+    <t>Constant, Ranged, Area,SIngle Target, Rall DI, Rall Crit , Buff Resistance, Rall Resistance, Buff DI, Buff MP, Rall Parade, Resurection, Indirect, Sub Heal, Buff PO, Anti Heal, Anti Shield</t>
+  </si>
+  <si>
+    <t>Heal, Sub Positioning, Buff Resistance, Rall Resistance, Buff DI, Rall DI, Buff MP, Rall Parade, Resurection, Buff PO, Anti Heal, Anti Shield, Shield</t>
+  </si>
+  <si>
+    <t>Heal, Sub Positioning, Buff Resistance, Rall Resistance, Buff DI, Rall DI, Buff MP, Rall Parade, Resurection, Buff PO, Anti Heal, Anti Shield</t>
+  </si>
+  <si>
+    <t>Constant, Area, Single Target, Melee, Buff DI, Buff PO, Rall Resistance, Rall DI, Rall MP</t>
+  </si>
+  <si>
+    <t>Constant, Single Target, Melee, Buff DI, Buff PO, Rall Resistance, Rall DI, Rall MP</t>
+  </si>
+  <si>
+    <t>Buff DI, Buff PO, Rall Resistance, Rall DI, Rall MP, Sub Heal</t>
+  </si>
+  <si>
+    <t>Ranged, Constanr, Area, Indirect, Sub Positioning, Buff WP, Invulnerability, Buff Resistance</t>
+  </si>
+  <si>
+    <t>Shield, Buff Crit, Buff WP, Sub Positioning, Invulnerability, Buff Resistance, Buff MP, Buff DI, Allies Stabilized, Self Stabilized, Buff PO, Buff Parade</t>
+  </si>
+  <si>
+    <t>Burst, Constant, Ranged, Melee, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
+  </si>
+  <si>
+    <t>Constant, Melee, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
+  </si>
+  <si>
+    <t>Burst, Constant, Ranged, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
+  </si>
+  <si>
+    <t>Constant, Ranged, Burst, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
+  </si>
+  <si>
+    <t>Shield, Sub Positioning, Enemy Stabilized, Allies Stabilized, Rall MP, Rall Crit, Rall Parade, Buff DI, Buff PO, Rall PO, Rall Resistance</t>
+  </si>
+  <si>
+    <t>Huppermage Saboteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant, Burst, Melee, Ranged, Area, SIngle Target, Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rall AP, Rall MP, Constant, Melee, Single Target, Area, Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant, Burst, Ranged, Area, SIngle Target, Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buff DI, Buff Crit, Rall DI, Rall Parade, Heal, Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance, Shield </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buff DI, Buff Crit, Rall DI, Rall Parade, Heal, Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
+  </si>
+  <si>
+    <t>Constant, Area, Melee, Buff AP, Buff DI, Anti Shield, Off Tank</t>
+  </si>
+  <si>
+    <t>Constant, Single Target, Melee, Buff AP, Buff DI, Anti Shield, Off Tank</t>
+  </si>
+  <si>
+    <t>Buff AP, Buff DI, Sub Shield, Anti Shield</t>
+  </si>
+  <si>
+    <t>Constant, Single Target, Melee, Rall WP, Sub Heal, Sub Positioning, Resurection</t>
+  </si>
+  <si>
+    <t>Heal, Shield, Rall WP, Sub Positioning, Buff DI, Buff MP, Buff Crit, Resurection, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall Resistance</t>
+  </si>
+  <si>
+    <t>Heal, Shield, Rall WP, Positioning, Buff DI, Buff MP, Buff Crit, Resurection, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall Resistance</t>
+  </si>
+  <si>
+    <t>Constant, Single Target, Area, Melee, Ranged, Buff AP, Buff DI, Sub Heal, Sub Shield, Indirect</t>
+  </si>
+  <si>
+    <t>Constant, Single Target, Area, Melee, Ranged, Buff AP, Buff DI, Sub Heal</t>
+  </si>
+  <si>
+    <t>Constant, Area, Melee, Buff AP, Buff DI</t>
+  </si>
+  <si>
+    <t>Buff AP, Buff DI, Heal, Sub Shield, Rall MP, Sub Positioning, Rall Crit, Rall PO, Buff PO, Buff MP, Rall DI, Rall Parade, Buff Crit, Rall Resistance</t>
+  </si>
+  <si>
+    <t>Buff AP, Buff DI, Sub Heal, Sub Shield, Rall MP, Positioning, Rall Crit, Rall PO, Buff PO, Buff MP, Rall DI, Rall Parade, Buff Crit, Rall Resistance</t>
+  </si>
+  <si>
+    <t>Buff AP, Buff DI, Sub Heal, Sub Shield, Rall MP, Sub Positioning, Rall Crit, Rall PO, Buff PO, Buff MP, Rall DI, Rall Parade, Buff Crit, Rall Resistance</t>
+  </si>
+  <si>
+    <t>Constant, Melee, Area, Single Target, Buff DI, Anti Shield, Enemy Stabilized, Allies Stabilized, Self Stabilized, Off Tank, Indirect,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant, Melee, Area, Single Target, Burst, Rall MP, Buff DI, Anti Shield, Enemy Stabilized, Allies Stabilized, Self Stabilized, Off Tank, </t>
+  </si>
+  <si>
+    <t>Sub Shield, Rall MP, Enemy Stabilized, Allies Stabilized, Self Stabilized</t>
+  </si>
+  <si>
+    <t>Constant, Melee, Area, Sub Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Buff MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positioning, Enemy Stabilized, Allies Stabilized, Self Stabilized, Buff MP, Sub Heal </t>
+  </si>
+  <si>
+    <t>Indirect, Burst, Melee, Ranged, SIngle Target, Area, Buff DI, Rall MP, Indirect</t>
+  </si>
+  <si>
+    <t>Constant, Burst, Melee, Ranged, Area, SIngle Target, Buff DI, Rall MP</t>
+  </si>
+  <si>
+    <t>Rall MP, Rall PO, Anti Heal, Buff DI, Sub Positioning</t>
+  </si>
+  <si>
+    <t>Constant, Area, Single Target, Melee, Offtank, Anti Heal, Allies Stabilized, Self Stabilized, Indirect</t>
+  </si>
+  <si>
+    <t>Constant, Area, Single Target, Melee, Offtank, Anti Heal, Allies Stabilized, Self Stabilized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant, Area, Burst,  Ranged, Buff Resistance, Rall Resistance, Rall DI, Rall MP, Sub Shield, Sub Heal, Resurection, Self Stabilized  </t>
+  </si>
+  <si>
+    <t>Sacrieur placeur</t>
+  </si>
+  <si>
+    <t>Rall MP, Positioning, Invulnerability, Allies Stabilized, Self Stabilized</t>
   </si>
   <si>
     <t xml:space="preserve">Constant, Area, Burst,  Ranged, Buff Resistance, Rall Resistance, Rall DI, Rall MP, Sub Shield, Resurection, Self Stabilized , Indirect </t>
   </si>
   <si>
-    <t>Sadida Invocateur</t>
+    <t xml:space="preserve">Constant, Burst, Ranged, Buff Resistance, Rall Resistance, Rall DI, Rall MP, Sub Shield, Resurection, Self Stabilized, Sub Heal </t>
   </si>
   <si>
-    <t xml:space="preserve">Constant, Area, Burst,  Ranged, Buff Resistance, Rall Resistance, Rall DI, Rall MP, Sub Shield, Sub Heal, Resurection, Self Stabilized  </t>
+    <t>Heal, Shield, Rall MP,  Buff Resistance, Buff MP, Rall Resistance, Rall PO</t>
   </si>
   <si>
-    <t>Sadida Support</t>
+    <t>Shield, Rall MP,  Buff Resistance, Buff MP, Rall Resistance, Rall PO</t>
   </si>
   <si>
     <t>Heal, Sub Shield, Rall MP,  Buff Resistance, Buff MP, Rall Resistance, Rall PO</t>
   </si>
   <si>
-    <t>Enutrof dpt</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Melee, Buff DI, Buff PO, Rall Resistance, Rall DI, Rall MP</t>
-  </si>
-  <si>
-    <t>Enutrof Zone</t>
-  </si>
-  <si>
-    <t>Constant, Area, Single Target, Melee, Buff DI, Buff PO, Rall Resistance, Rall DI, Rall MP</t>
-  </si>
-  <si>
-    <t>Enutrof Support</t>
-  </si>
-  <si>
-    <t>Buff DI, Buff PO, Rall Resistance, Rall DI, Rall MP, Sub Heal</t>
-  </si>
-  <si>
-    <t>Cra Zone</t>
-  </si>
-  <si>
-    <t>Constant, SIngle Target, Ranged, Buff PO, Rall PO, Anti Heal, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Cra Monocible</t>
-  </si>
-  <si>
-    <t>Constant, Area, Burst, Ranged, Buff PO, Rall PO, Anti Heal, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Cra Support</t>
-  </si>
-  <si>
-    <t>Buff PO,  Rall PO, Sub Placeur, Anti Shield, Anti Heal, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Eliotrop mélée</t>
-  </si>
-  <si>
-    <t>Area, Burst, Single Target, Melee, Enemy Stabilized, Allies Stabilized, Sub Placeur</t>
-  </si>
-  <si>
-    <t>Eliotrop distance</t>
-  </si>
-  <si>
-    <t>Area, Burst, Single Target, Ranged, Enemy Stabilized, Allies Stabilized, Sub Placeur</t>
-  </si>
-  <si>
-    <t>Eliotrop élémentaire</t>
-  </si>
-  <si>
-    <t>Area, Burst, Single Target, Melee, Ranged, Enemy Stabilized, Allies Stabilized, Sub Placeur</t>
-  </si>
-  <si>
-    <t>Eliotrop placeur</t>
-  </si>
-  <si>
-    <t>Buff AP, Placeur, Buff MP, Sub Heal, Enemy Stabilized, Allies Stabilized, Placeur</t>
-  </si>
-  <si>
-    <t>Ecaflip mélée</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Melee, Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection, Sub Placeur</t>
-  </si>
-  <si>
-    <t>Ecaflip distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant, Single Target, Ranged, Buff MP, Buff Crit, Rall Resistance, Resurection, Sub Heal, Self Stabilized, Sub Placeur </t>
-  </si>
-  <si>
-    <t>Ecaflip élémentaire</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Melee, Ranged, Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection , Sub Heal, Self Stabilized, Sub Placeur</t>
-  </si>
-  <si>
-    <t>Ecaflip support</t>
-  </si>
-  <si>
-    <t>Buff MP, Buff Crit, Rall Resistance, Rall WP, Buff WP, Resurection, Heal</t>
-  </si>
-  <si>
-    <t>Osamodas Dragon</t>
-  </si>
-  <si>
-    <t>Constant, Area, Melee, Buff AP, Buff DI</t>
-  </si>
-  <si>
-    <t>Osamodas Invocateur</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Area, Melee, Ranged, Buff AP, Buff DI, Sub Heal</t>
-  </si>
-  <si>
-    <t>Osamodas Enflammé</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Area, Melee, Ranged, Buff AP, Buff DI, Sub Heal, Sub Shield, Indirect</t>
-  </si>
-  <si>
-    <t>Osamodas Support soin</t>
-  </si>
-  <si>
-    <t>Buff AP, Buff DI, Heal, Sub Shield, Rall MP, Sub Placeur, Rall Crit, Rall PO, Buff PO, Buff MP, Rall DI, Rall Parade, Buff Crit, Rall Resistance</t>
-  </si>
-  <si>
-    <t>Osamodas Support</t>
-  </si>
-  <si>
-    <t>Buff AP, Buff DI, Sub Heal, Sub Shield, Rall MP, Sub Placeur, Rall Crit, Rall PO, Buff PO, Buff MP, Rall DI, Rall Parade, Buff Crit, Rall Resistance</t>
-  </si>
-  <si>
-    <t>Osamodas Placeur</t>
-  </si>
-  <si>
-    <t>Buff AP, Buff DI, Sub Heal, Sub Shield, Rall MP, Placeur, Rall Crit, Rall PO, Buff PO, Buff MP, Rall DI, Rall Parade, Buff Crit, Rall Resistance</t>
-  </si>
-  <si>
-    <t>Huppermage mêlée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rall AP, Rall MP, Constant, Melee, Single Target, Area, Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
-  </si>
-  <si>
-    <t>Huppermage distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant, Burst, Ranged, Area, SIngle Target, Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>Huppermage élémentaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant, Burst, Melee, Ranged, Area, SIngle Target, Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
-  </si>
-  <si>
-    <t>Huppermage support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buff DI, Buff Crit, Rall DI, Rall Parade, Heal, Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
-  </si>
-  <si>
-    <t>Huppermage Saboteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buff DI, Buff Crit, Rall DI, Rall Parade, Sub Heal, Sub Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall PO, Anti Heal, Anti Shield, Buff AP, Buff MP, Buff Resistance </t>
-  </si>
-  <si>
-    <t>Sacrieur dpt</t>
-  </si>
-  <si>
-    <t>Constant, Area, Single Target, Melee, Offtank, Anti Heal, Allies Stabilized, Self Stabilized</t>
-  </si>
-  <si>
-    <t>Sacrieur enflamée</t>
-  </si>
-  <si>
-    <t>Constant, Area, Single Target, Melee, Offtank, Anti Heal, Allies Stabilized, Self Stabilized, Indirect</t>
-  </si>
-  <si>
-    <t>Sacrieur placeur</t>
-  </si>
-  <si>
-    <t>Rall MP, Placeur, Invulnerability, Allies Stabilized, Self Stabilized</t>
-  </si>
-  <si>
-    <t>Iop dpt</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Melee, Buff AP, Buff DI, Anti Shield, Off Tank</t>
-  </si>
-  <si>
-    <t>Iop support</t>
-  </si>
-  <si>
-    <t>Buff AP, Buff DI, Sub shield, Anti Shield</t>
-  </si>
-  <si>
-    <t>Zobal mélée</t>
-  </si>
-  <si>
-    <t>Constant, Single Target, Melee, Rall WP, Sub Heal, Sub Placeur, Resurection</t>
-  </si>
-  <si>
-    <t>Zobal support</t>
-  </si>
-  <si>
-    <t>Heal, Shield, Rall WP, Sub Placeur, Buff DI, Buff MP, Buff Crit, Resurection, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall Resistance</t>
-  </si>
-  <si>
-    <t>Zobal placeur</t>
-  </si>
-  <si>
-    <t>Heal, Shield, Rall WP, Placeur, Buff DI, Buff MP, Buff Crit, Resurection, Enemy Stabilized, Allies Stabilized, Self Stabilized, Rall Resistance</t>
-  </si>
-  <si>
-    <t>Zobal Shield</t>
-  </si>
-  <si>
-    <t>Roublard dpt</t>
-  </si>
-  <si>
-    <t>Constant, Burst, Melee, Ranged, Area, SIngle Target, Buff DI, Rall MP</t>
-  </si>
-  <si>
-    <t>Roublard Bombe</t>
-  </si>
-  <si>
-    <t>Indirect, Burst, Melee, Ranged, SIngle Target, Area, Buff DI, Rall MP, Indirect</t>
-  </si>
-  <si>
-    <t>Roublard Saboteur</t>
-  </si>
-  <si>
-    <t>Rall MP, Rall PO, Anti Heal, Buff DI, Sub Placeur</t>
-  </si>
-  <si>
-    <t>Pandawa mélée</t>
-  </si>
-  <si>
-    <t>Constant, Melee, Area, Sub Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Buff MP</t>
-  </si>
-  <si>
-    <t>Pandawa placeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeur, Enemy Stabilized, Allies Stabilized, Self Stabilized, Buff MP, Sub Heal, </t>
-  </si>
-  <si>
-    <t>Pandawa soin</t>
-  </si>
-  <si>
-    <t>Ouginiak dpt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constant, Melee, Area, Single Target, Burst, Rall MP, Buff DI, Anti Shield, Enemy Stabilized, Allies Stabilized, Self Stabilized, Off Tank, </t>
-  </si>
-  <si>
-    <t>Ouginiak poison</t>
-  </si>
-  <si>
-    <t>Constant, Melee, Area, Single Target, Buff DI, Anti Shield, Enemy Stabilized, Allies Stabilized, Self Stabilized, Off Tank, Indirect,</t>
-  </si>
-  <si>
-    <t>Ouginiak support</t>
-  </si>
-  <si>
-    <t>Sub Shield, Rall MP, Enemy Stabilized, Allies Stabilized, Self Stabilized</t>
-  </si>
-  <si>
-    <t>Steamer distance</t>
-  </si>
-  <si>
-    <t>Burst, Constant, Ranged, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Steamer mêlée</t>
-  </si>
-  <si>
-    <t>Constant, Melee, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Steamer burst</t>
-  </si>
-  <si>
-    <t>Constant, Ranged, Burst, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Steamer élémentaire</t>
-  </si>
-  <si>
-    <t>Burst, Constant, Ranged, Melee, Indirect, Rall PO, Rall Parade, Rall Crit, Rall MP, Rall resistance, Buff DI, Buff PO, Enemy Stabilized, Allies Stabilized</t>
-  </si>
-  <si>
-    <t>Steamer support</t>
-  </si>
-  <si>
-    <t>Shield, Sub Placeur, Enemy Stabilized, Allies Stabilized, Rall MP, Rall Crit, Rall Parade, Buff DI, Buff PO, Rall PO, Rall Resistance</t>
-  </si>
-  <si>
-    <t>Enirpsa poison</t>
-  </si>
-  <si>
-    <t>Constant, Ranged, Area,SIngle Target, Rall DI, Rall Crit , Buff Resistance, Rall Resistance, Buff DI, Buff MP, Rall Parade, Resurection, Indirect, Sub Heal, Buff PO, Anti Heal, Anti Shield</t>
-  </si>
-  <si>
-    <t>Eniripsa support</t>
-  </si>
-  <si>
-    <t>Heal, Sub Placeur, Buff Resistance, Rall Resistance, Buff DI, Rall DI, Buff MP, Rall Parade, Resurection, Buff PO, Anti Heal, Anti Shield</t>
-  </si>
-  <si>
-    <t>Féca glyphe</t>
-  </si>
-  <si>
-    <t>Ranged, Constanr, Area, Indirect, Sub Placeur, Buff WP, Invulnerability, Buff Resistance</t>
-  </si>
-  <si>
-    <t>Féca support</t>
-  </si>
-  <si>
-    <t>Shield, Buff Crit, Buff WP, Sub Placeur, Invulnerability, Buff Resistance, Buff MP, Buff DI, Allies Stabilized, Self Stabilized, Buff PO, Buff Parade</t>
-  </si>
-  <si>
-    <t>Sram dpt</t>
+    <t>Constant, Ranged, Area, Buff MP, Rall AP, Indirect</t>
   </si>
   <si>
     <t>Constant, Melee, Single Target, Area, Buff MP, Rall AP</t>
   </si>
   <si>
-    <t>Sram piège</t>
+    <t>Rall AP, Buff MP, Sub Positioning</t>
   </si>
   <si>
-    <t>Constant, Ranged, Area, Buff MP, Rall AP, Indirect</t>
+    <t xml:space="preserve">Area, Burst, Single Target, Ranged, Buff AP, Rall AP, Sub Positioning, Self Stabilized, Indirect </t>
   </si>
   <si>
-    <t>Sram support</t>
+    <t xml:space="preserve">Area, Burst, Single Target, Ranged, Buff AP, Sub Positioning, Self Stabilized </t>
   </si>
   <si>
-    <t>Rall AP, Buff MP, Sub Placeur</t>
+    <t xml:space="preserve">Buff AP, Positioning, Self Stabilized </t>
   </si>
 </sst>
 </file>
@@ -781,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border/>
     <border>
       <left style="thin">
@@ -1007,25 +846,11 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1137,29 +962,32 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font/>
       <fill>
@@ -1197,29 +1025,10 @@
       </fill>
       <border/>
     </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
   </dxfs>
-  <tableStyles count="3">
+  <tableStyles count="1">
     <tableStyle count="3" pivot="0" name="Notes-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="Rôles-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="Rôles-style 2">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
@@ -1239,7 +1048,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:X71" displayName="Notes" name="Notes" id="1">
   <autoFilter ref="$A$1:$X$71"/>
   <tableColumns count="24">
-    <tableColumn name="Notes des classes de 0 a 5 en fonction des paramêtres suivant" id="1"/>
+    <tableColumn name="Notes des classes de 0 a 4 en fonction des paramêtres suivant" id="1"/>
     <tableColumn name="Melee" id="2"/>
     <tableColumn name="Ranged" id="3"/>
     <tableColumn name="Single_Target" id="4"/>
@@ -1249,7 +1058,7 @@
     <tableColumn name="Heal" id="8"/>
     <tableColumn name="Shield" id="9"/>
     <tableColumn name="Protection" id="10"/>
-    <tableColumn name="Placeur" id="11"/>
+    <tableColumn name="Positioning" id="11"/>
     <tableColumn name="Buff_AP" id="12"/>
     <tableColumn name="Buff_MP" id="13"/>
     <tableColumn name="Boost Crit" id="14"/>
@@ -1265,31 +1074,6 @@
     <tableColumn name="Résurrection" id="24"/>
   </tableColumns>
   <tableStyleInfo name="Notes-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:B1" displayName="Rôles" name="Rôles" id="2">
-  <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Rôles-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A2:B63" displayName="Table_1" name="Table_1" id="3">
-  <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Rôles-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1588,13 +1372,13 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" s="11">
         <v>3.0</v>
       </c>
       <c r="E2" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" s="11">
         <v>3.0</v>
@@ -1614,7 +1398,9 @@
       <c r="K2" s="11">
         <v>1.0</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M2" s="13"/>
       <c r="N2" s="11">
         <v>0.0</v>
@@ -1652,7 +1438,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" s="17">
         <v>4.0</v>
@@ -1678,7 +1464,9 @@
       <c r="K3" s="17">
         <v>1.0</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M3" s="19"/>
       <c r="N3" s="17">
         <v>0.0</v>
@@ -1742,7 +1530,9 @@
       <c r="K4" s="11">
         <v>1.0</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M4" s="13"/>
       <c r="N4" s="11">
         <v>0.0</v>
@@ -1798,7 +1588,7 @@
         <v>2.0</v>
       </c>
       <c r="I5" s="17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" s="17">
         <v>0.0</v>
@@ -1806,13 +1596,15 @@
       <c r="K5" s="17">
         <v>2.0</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M5" s="19"/>
       <c r="N5" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O5" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -1862,7 +1654,7 @@
         <v>2.0</v>
       </c>
       <c r="I6" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" s="11">
         <v>0.0</v>
@@ -1870,13 +1662,15 @@
       <c r="K6" s="11">
         <v>3.0</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M6" s="13"/>
       <c r="N6" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O6" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -1926,7 +1720,7 @@
         <v>2.0</v>
       </c>
       <c r="I7" s="17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J7" s="17">
         <v>0.0</v>
@@ -1934,13 +1728,15 @@
       <c r="K7" s="17">
         <v>3.0</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M7" s="19"/>
       <c r="N7" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O7" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -1998,13 +1794,15 @@
       <c r="K8" s="11">
         <v>2.0</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M8" s="13"/>
       <c r="N8" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O8" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -2054,7 +1852,7 @@
         <v>4.0</v>
       </c>
       <c r="I9" s="17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J9" s="17">
         <v>0.0</v>
@@ -2062,13 +1860,15 @@
       <c r="K9" s="17">
         <v>2.0</v>
       </c>
-      <c r="L9" s="19"/>
+      <c r="L9" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M9" s="19"/>
       <c r="N9" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="O9" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -2112,17 +1912,23 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H10" s="11">
         <v>1.0</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.0</v>
+      </c>
       <c r="K10" s="11">
         <v>2.0</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="11">
         <v>0.0</v>
@@ -2157,32 +1963,38 @@
         <v>37</v>
       </c>
       <c r="B11" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" s="17">
         <v>0.0</v>
       </c>
       <c r="D11" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" s="17">
         <v>1.0</v>
       </c>
       <c r="G11" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H11" s="17">
         <v>1.0</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K11" s="17">
         <v>2.0</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M11" s="19"/>
       <c r="N11" s="17">
         <v>0.0</v>
@@ -2220,10 +2032,10 @@
         <v>0.0</v>
       </c>
       <c r="C12" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E12" s="11">
         <v>3.0</v>
@@ -2232,17 +2044,23 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H12" s="11">
         <v>1.0</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.0</v>
+      </c>
       <c r="K12" s="11">
         <v>2.0</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="11">
         <v>0.0</v>
@@ -2297,12 +2115,18 @@
       <c r="H13" s="17">
         <v>1.0</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K13" s="17">
         <v>4.0</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="17">
+        <v>1.0</v>
+      </c>
       <c r="M13" s="19"/>
       <c r="N13" s="17">
         <v>0.0</v>
@@ -2355,16 +2179,20 @@
         <v>2.0</v>
       </c>
       <c r="H14" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I14" s="11">
         <v>1.0</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K14" s="12">
         <v>2.0</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="11">
+        <v>1.0</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="11">
         <v>0.0</v>
@@ -2419,12 +2247,18 @@
       <c r="H15" s="17">
         <v>2.0</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K15" s="17">
         <v>2.0</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="17">
         <v>0.0</v>
@@ -2482,11 +2316,15 @@
       <c r="I16" s="11">
         <v>3.0</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K16" s="12">
         <v>2.0</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="11">
         <v>0.0</v>
@@ -2544,11 +2382,15 @@
       <c r="I17" s="17">
         <v>0.0</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K17" s="17">
         <v>2.0</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="17">
+        <v>1.0</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="17">
         <v>0.0</v>
@@ -2583,19 +2425,19 @@
         <v>44</v>
       </c>
       <c r="B18" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C18" s="11">
         <v>0.0</v>
       </c>
       <c r="D18" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E18" s="11">
         <v>1.0</v>
       </c>
       <c r="F18" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G18" s="11">
         <v>3.0</v>
@@ -2606,11 +2448,15 @@
       <c r="I18" s="11">
         <v>0.0</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="11">
+        <v>0.0</v>
+      </c>
       <c r="K18" s="11">
         <v>2.0</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="11">
+        <v>1.0</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="11">
         <v>0.0</v>
@@ -2668,11 +2514,15 @@
       <c r="I19" s="17">
         <v>0.0</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K19" s="17">
         <v>2.0</v>
       </c>
-      <c r="L19" s="19"/>
+      <c r="L19" s="17">
+        <v>2.0</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="17">
         <v>0.0</v>
@@ -2710,35 +2560,41 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" s="11">
         <v>1.0</v>
       </c>
       <c r="E20" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F20" s="11">
         <v>1.0</v>
       </c>
       <c r="G20" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H20" s="11">
         <v>0.0</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K20" s="11">
         <v>3.0</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M20" s="13"/>
       <c r="N20" s="11">
         <v>0.0</v>
       </c>
       <c r="O20" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -2787,20 +2643,24 @@
       <c r="H21" s="17">
         <v>0.0</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="17">
+        <v>4.0</v>
+      </c>
       <c r="J21" s="17">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K21" s="17">
         <v>3.0</v>
       </c>
-      <c r="L21" s="19"/>
+      <c r="L21" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="17">
         <v>0.0</v>
       </c>
       <c r="O21" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -2849,12 +2709,18 @@
       <c r="H22" s="11">
         <v>3.0</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K22" s="11">
         <v>3.0</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M22" s="13"/>
       <c r="N22" s="11">
         <v>2.0</v>
@@ -2909,12 +2775,18 @@
       <c r="H23" s="17">
         <v>3.0</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="19"/>
+      <c r="I23" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K23" s="17">
         <v>3.0</v>
       </c>
-      <c r="L23" s="19"/>
+      <c r="L23" s="17">
+        <v>2.0</v>
+      </c>
       <c r="M23" s="19"/>
       <c r="N23" s="17">
         <v>2.0</v>
@@ -2969,12 +2841,18 @@
       <c r="H24" s="11">
         <v>3.0</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K24" s="11">
         <v>3.0</v>
       </c>
-      <c r="L24" s="13"/>
+      <c r="L24" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M24" s="13"/>
       <c r="N24" s="11">
         <v>2.0</v>
@@ -3029,12 +2907,18 @@
       <c r="H25" s="17">
         <v>3.0</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K25" s="17">
         <v>4.0</v>
       </c>
-      <c r="L25" s="19"/>
+      <c r="L25" s="17">
+        <v>2.0</v>
+      </c>
       <c r="M25" s="19"/>
       <c r="N25" s="17">
         <v>2.0</v>
@@ -3089,10 +2973,16 @@
       <c r="H26" s="11">
         <v>4.0</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K26" s="11"/>
-      <c r="L26" s="13"/>
+      <c r="L26" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M26" s="13"/>
       <c r="N26" s="11">
         <v>2.0</v>
@@ -3147,12 +3037,18 @@
       <c r="H27" s="17">
         <v>2.0</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>3.0</v>
+      </c>
       <c r="K27" s="17">
         <v>4.0</v>
       </c>
-      <c r="L27" s="19"/>
+      <c r="L27" s="17">
+        <v>2.0</v>
+      </c>
       <c r="M27" s="19"/>
       <c r="N27" s="17">
         <v>2.0</v>
@@ -3207,12 +3103,18 @@
       <c r="H28" s="11">
         <v>0.0</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K28" s="11">
         <v>1.0</v>
       </c>
-      <c r="L28" s="13"/>
+      <c r="L28" s="11">
+        <v>1.0</v>
+      </c>
       <c r="M28" s="13"/>
       <c r="N28" s="11">
         <v>0.0</v>
@@ -3267,12 +3169,18 @@
       <c r="H29" s="17">
         <v>0.0</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
+      <c r="I29" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K29" s="17">
         <v>1.0</v>
       </c>
-      <c r="L29" s="19"/>
+      <c r="L29" s="17">
+        <v>1.0</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="17">
         <v>0.0</v>
@@ -3327,12 +3235,18 @@
       <c r="H30" s="11">
         <v>0.0</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K30" s="11">
         <v>1.0</v>
       </c>
-      <c r="L30" s="13"/>
+      <c r="L30" s="11">
+        <v>4.0</v>
+      </c>
       <c r="M30" s="13"/>
       <c r="N30" s="11">
         <v>0.0</v>
@@ -3382,17 +3296,23 @@
         <v>1.0</v>
       </c>
       <c r="G31" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H31" s="17">
         <v>2.0</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="I31" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K31" s="17">
         <v>3.0</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="17">
         <v>3.0</v>
@@ -3447,12 +3367,18 @@
       <c r="H32" s="11">
         <v>3.0</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K32" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="L32" s="13"/>
+        <v>4.0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M32" s="13"/>
       <c r="N32" s="11">
         <v>3.0</v>
@@ -3507,12 +3433,18 @@
       <c r="H33" s="17">
         <v>4.0</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="I33" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="J33" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K33" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="L33" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M33" s="19"/>
       <c r="N33" s="17">
         <v>3.0</v>
@@ -3567,12 +3499,18 @@
       <c r="H34" s="22">
         <v>1.0</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="L34" s="23"/>
+      <c r="I34" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="J34" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M34" s="23"/>
       <c r="N34" s="24">
         <v>3.0</v>
@@ -3627,12 +3565,18 @@
       <c r="H35" s="26">
         <v>1.0</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="L35" s="27"/>
+      <c r="I35" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="J35" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="K35" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M35" s="27"/>
       <c r="N35" s="28">
         <v>3.0</v>
@@ -3687,12 +3631,18 @@
       <c r="H36" s="11">
         <v>1.0</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="I36" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K36" s="11">
         <v>2.0</v>
       </c>
-      <c r="L36" s="13"/>
+      <c r="L36" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M36" s="13"/>
       <c r="N36" s="11">
         <v>2.0</v>
@@ -3747,12 +3697,18 @@
       <c r="H37" s="17">
         <v>2.0</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
+      <c r="I37" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K37" s="17">
         <v>3.0</v>
       </c>
-      <c r="L37" s="19"/>
+      <c r="L37" s="17">
+        <v>3.0</v>
+      </c>
       <c r="M37" s="19"/>
       <c r="N37" s="17">
         <v>2.0</v>
@@ -3787,7 +3743,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" s="11">
         <v>0.0</v>
@@ -3796,10 +3752,10 @@
         <v>1.0</v>
       </c>
       <c r="E38" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G38" s="11">
         <v>2.0</v>
@@ -3807,12 +3763,18 @@
       <c r="H38" s="11">
         <v>0.0</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="I38" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K38" s="11">
         <v>2.0</v>
       </c>
-      <c r="L38" s="13"/>
+      <c r="L38" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M38" s="13"/>
       <c r="N38" s="11">
         <v>2.0</v>
@@ -3867,12 +3829,18 @@
       <c r="H39" s="17">
         <v>4.0</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
+      <c r="I39" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K39" s="17">
         <v>4.0</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="17">
+        <v>3.0</v>
+      </c>
       <c r="M39" s="19"/>
       <c r="N39" s="17">
         <v>3.0</v>
@@ -3927,12 +3895,18 @@
       <c r="H40" s="11">
         <v>2.0</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K40" s="11">
         <v>4.0</v>
       </c>
-      <c r="L40" s="13"/>
+      <c r="L40" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M40" s="13"/>
       <c r="N40" s="11">
         <v>0.0</v>
@@ -3987,12 +3961,18 @@
       <c r="H41" s="17">
         <v>2.0</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="I41" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K41" s="17">
         <v>4.0</v>
       </c>
-      <c r="L41" s="19"/>
+      <c r="L41" s="17">
+        <v>3.0</v>
+      </c>
       <c r="M41" s="19"/>
       <c r="N41" s="17">
         <v>3.0</v>
@@ -4050,11 +4030,15 @@
       <c r="I42" s="11">
         <v>0.0</v>
       </c>
-      <c r="J42" s="13"/>
+      <c r="J42" s="11">
+        <v>0.0</v>
+      </c>
       <c r="K42" s="11">
         <v>2.0</v>
       </c>
-      <c r="L42" s="13"/>
+      <c r="L42" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M42" s="13"/>
       <c r="N42" s="11">
         <v>0.0</v>
@@ -4112,11 +4096,15 @@
       <c r="I43" s="17">
         <v>0.0</v>
       </c>
-      <c r="J43" s="19"/>
+      <c r="J43" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K43" s="17">
         <v>2.0</v>
       </c>
-      <c r="L43" s="19"/>
+      <c r="L43" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M43" s="19"/>
       <c r="N43" s="17">
         <v>0.0</v>
@@ -4171,12 +4159,18 @@
       <c r="H44" s="11">
         <v>0.0</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="13"/>
+      <c r="I44" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K44" s="11">
         <v>3.0</v>
       </c>
-      <c r="L44" s="13"/>
+      <c r="L44" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M44" s="13"/>
       <c r="N44" s="11">
         <v>0.0</v>
@@ -4234,11 +4228,15 @@
       <c r="I45" s="17">
         <v>0.0</v>
       </c>
-      <c r="J45" s="19"/>
+      <c r="J45" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K45" s="17">
         <v>4.0</v>
       </c>
-      <c r="L45" s="19"/>
+      <c r="L45" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M45" s="19"/>
       <c r="N45" s="17">
         <v>0.0</v>
@@ -4296,11 +4294,15 @@
       <c r="I46" s="11">
         <v>0.0</v>
       </c>
-      <c r="J46" s="13"/>
+      <c r="J46" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K46" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="L46" s="13"/>
+        <v>4.0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M46" s="13"/>
       <c r="N46" s="11">
         <v>0.0</v>
@@ -4358,11 +4360,15 @@
       <c r="I47" s="17">
         <v>0.0</v>
       </c>
-      <c r="J47" s="19"/>
+      <c r="J47" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K47" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="L47" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M47" s="19"/>
       <c r="N47" s="17">
         <v>0.0</v>
@@ -4405,14 +4411,14 @@
       <c r="D48" s="17">
         <v>2.0</v>
       </c>
-      <c r="E48" s="17">
-        <v>5.0</v>
+      <c r="E48" s="11">
+        <v>4.0</v>
       </c>
       <c r="F48" s="17">
         <v>2.0</v>
       </c>
-      <c r="G48" s="17">
-        <v>5.0</v>
+      <c r="G48" s="11">
+        <v>4.0</v>
       </c>
       <c r="H48" s="17">
         <v>0.0</v>
@@ -4420,11 +4426,15 @@
       <c r="I48" s="17">
         <v>0.0</v>
       </c>
-      <c r="J48" s="19"/>
+      <c r="J48" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K48" s="17">
         <v>1.0</v>
       </c>
-      <c r="L48" s="19"/>
+      <c r="L48" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M48" s="19"/>
       <c r="N48" s="17">
         <v>0.0</v>
@@ -4482,11 +4492,15 @@
       <c r="I49" s="17">
         <v>0.0</v>
       </c>
-      <c r="J49" s="19"/>
+      <c r="J49" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K49" s="17">
         <v>1.0</v>
       </c>
-      <c r="L49" s="19"/>
+      <c r="L49" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M49" s="19"/>
       <c r="N49" s="17">
         <v>0.0</v>
@@ -4544,11 +4558,15 @@
       <c r="I50" s="11">
         <v>0.0</v>
       </c>
-      <c r="J50" s="13"/>
+      <c r="J50" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K50" s="11">
         <v>1.0</v>
       </c>
-      <c r="L50" s="13"/>
+      <c r="L50" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M50" s="13"/>
       <c r="N50" s="11">
         <v>0.0</v>
@@ -4583,7 +4601,7 @@
         <v>80</v>
       </c>
       <c r="B51" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C51" s="17">
         <v>1.0</v>
@@ -4603,12 +4621,18 @@
       <c r="H51" s="17">
         <v>0.0</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
+      <c r="I51" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K51" s="17">
         <v>3.0</v>
       </c>
-      <c r="L51" s="19"/>
+      <c r="L51" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M51" s="19"/>
       <c r="N51" s="17">
         <v>0.0</v>
@@ -4643,19 +4667,19 @@
         <v>82</v>
       </c>
       <c r="B52" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C52" s="11">
         <v>1.0</v>
       </c>
       <c r="D52" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E52" s="11">
         <v>3.0</v>
       </c>
       <c r="F52" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G52" s="11">
         <v>2.0</v>
@@ -4663,12 +4687,18 @@
       <c r="H52" s="11">
         <v>0.0</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="I52" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K52" s="11">
         <v>3.0</v>
       </c>
-      <c r="L52" s="13"/>
+      <c r="L52" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M52" s="13"/>
       <c r="N52" s="11">
         <v>0.0</v>
@@ -4723,12 +4753,18 @@
       <c r="H53" s="17">
         <v>0.0</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="I53" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="17">
+        <v>3.0</v>
+      </c>
       <c r="K53" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="L53" s="19"/>
+        <v>4.0</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M53" s="19"/>
       <c r="N53" s="17">
         <v>0.0</v>
@@ -4783,12 +4819,18 @@
       <c r="H54" s="11">
         <v>2.0</v>
       </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="I54" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K54" s="11">
         <v>1.0</v>
       </c>
-      <c r="L54" s="13"/>
+      <c r="L54" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M54" s="13"/>
       <c r="N54" s="11">
         <v>0.0</v>
@@ -4800,7 +4842,7 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
@@ -4838,17 +4880,23 @@
         <v>3.0</v>
       </c>
       <c r="G55" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H55" s="17">
         <v>2.0</v>
       </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
+      <c r="I55" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K55" s="17">
         <v>3.0</v>
       </c>
-      <c r="L55" s="19"/>
+      <c r="L55" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M55" s="19"/>
       <c r="N55" s="17">
         <v>0.0</v>
@@ -4860,7 +4908,7 @@
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
@@ -4903,12 +4951,18 @@
       <c r="H56" s="11">
         <v>3.0</v>
       </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="13"/>
+      <c r="I56" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K56" s="11">
         <v>3.0</v>
       </c>
-      <c r="L56" s="13"/>
+      <c r="L56" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M56" s="13"/>
       <c r="N56" s="11">
         <v>0.0</v>
@@ -4920,7 +4974,7 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
       <c r="S56" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
@@ -4963,12 +5017,18 @@
       <c r="H57" s="17">
         <v>1.0</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="19"/>
+      <c r="I57" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="J57" s="17">
+        <v>2.0</v>
+      </c>
       <c r="K57" s="17">
         <v>3.0</v>
       </c>
-      <c r="L57" s="19"/>
+      <c r="L57" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M57" s="19"/>
       <c r="N57" s="17">
         <v>0.0</v>
@@ -4980,7 +5040,7 @@
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
@@ -5021,14 +5081,20 @@
         <v>2.0</v>
       </c>
       <c r="H58" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+        <v>4.0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J58" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K58" s="11">
         <v>3.0</v>
       </c>
-      <c r="L58" s="13"/>
+      <c r="L58" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M58" s="13"/>
       <c r="N58" s="11">
         <v>0.0</v>
@@ -5040,7 +5106,7 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
@@ -5086,11 +5152,15 @@
       <c r="I59" s="30">
         <v>0.0</v>
       </c>
-      <c r="J59" s="19"/>
+      <c r="J59" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K59" s="17">
         <v>2.0</v>
       </c>
-      <c r="L59" s="19"/>
+      <c r="L59" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M59" s="19"/>
       <c r="N59" s="17">
         <v>0.0</v>
@@ -5148,11 +5218,15 @@
       <c r="I60" s="11">
         <v>0.0</v>
       </c>
-      <c r="J60" s="13"/>
+      <c r="J60" s="11">
+        <v>0.0</v>
+      </c>
       <c r="K60" s="11">
         <v>3.0</v>
       </c>
-      <c r="L60" s="13"/>
+      <c r="L60" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M60" s="13"/>
       <c r="N60" s="11">
         <v>0.0</v>
@@ -5210,11 +5284,15 @@
       <c r="I61" s="17">
         <v>0.0</v>
       </c>
-      <c r="J61" s="19"/>
+      <c r="J61" s="17">
+        <v>0.0</v>
+      </c>
       <c r="K61" s="17">
         <v>3.0</v>
       </c>
-      <c r="L61" s="19"/>
+      <c r="L61" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M61" s="19"/>
       <c r="N61" s="17">
         <v>0.0</v>
@@ -5264,19 +5342,23 @@
         <v>1.0</v>
       </c>
       <c r="G62" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H62" s="11">
         <v>0.0</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="11">
+        <v>0.0</v>
+      </c>
       <c r="J62" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K62" s="11">
         <v>2.0</v>
       </c>
-      <c r="L62" s="13"/>
+      <c r="L62" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M62" s="13"/>
       <c r="N62" s="11">
         <v>0.0</v>
@@ -5320,10 +5402,10 @@
         <v>3.0</v>
       </c>
       <c r="E63" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F63" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G63" s="17">
         <v>4.0</v>
@@ -5331,14 +5413,18 @@
       <c r="H63" s="17">
         <v>0.0</v>
       </c>
-      <c r="I63" s="19"/>
+      <c r="I63" s="17">
+        <v>1.0</v>
+      </c>
       <c r="J63" s="17">
         <v>1.0</v>
       </c>
       <c r="K63" s="17">
         <v>2.0</v>
       </c>
-      <c r="L63" s="19"/>
+      <c r="L63" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M63" s="19"/>
       <c r="N63" s="17">
         <v>0.0</v>
@@ -5382,10 +5468,10 @@
         <v>3.0</v>
       </c>
       <c r="E64" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F64" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G64" s="11">
         <v>4.0</v>
@@ -5393,14 +5479,18 @@
       <c r="H64" s="11">
         <v>0.0</v>
       </c>
-      <c r="I64" s="13"/>
+      <c r="I64" s="11">
+        <v>1.0</v>
+      </c>
       <c r="J64" s="11">
         <v>1.0</v>
       </c>
       <c r="K64" s="11">
         <v>2.0</v>
       </c>
-      <c r="L64" s="13"/>
+      <c r="L64" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M64" s="13"/>
       <c r="N64" s="11">
         <v>0.0</v>
@@ -5455,14 +5545,18 @@
       <c r="H65" s="17">
         <v>0.0</v>
       </c>
-      <c r="I65" s="19"/>
+      <c r="I65" s="17">
+        <v>1.0</v>
+      </c>
       <c r="J65" s="17">
         <v>1.0</v>
       </c>
       <c r="K65" s="17">
         <v>1.0</v>
       </c>
-      <c r="L65" s="19"/>
+      <c r="L65" s="17">
+        <v>0.0</v>
+      </c>
       <c r="M65" s="19"/>
       <c r="N65" s="17">
         <v>0.0</v>
@@ -5517,14 +5611,18 @@
       <c r="H66" s="11">
         <v>0.0</v>
       </c>
-      <c r="I66" s="13"/>
+      <c r="I66" s="11">
+        <v>4.0</v>
+      </c>
       <c r="J66" s="11">
         <v>4.0</v>
       </c>
       <c r="K66" s="11">
         <v>3.0</v>
       </c>
-      <c r="L66" s="13"/>
+      <c r="L66" s="11">
+        <v>0.0</v>
+      </c>
       <c r="M66" s="13"/>
       <c r="N66" s="11">
         <v>0.0</v>
@@ -5568,10 +5666,10 @@
         <v>1.0</v>
       </c>
       <c r="E67" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F67" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G67" s="17">
         <v>1.0</v>
@@ -5582,11 +5680,15 @@
       <c r="I67" s="17">
         <v>0.0</v>
       </c>
-      <c r="J67" s="19"/>
+      <c r="J67" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K67" s="17">
         <v>3.0</v>
       </c>
-      <c r="L67" s="19"/>
+      <c r="L67" s="17">
+        <v>4.0</v>
+      </c>
       <c r="M67" s="19"/>
       <c r="N67" s="17">
         <v>0.0</v>
@@ -5644,11 +5746,15 @@
       <c r="I68" s="11">
         <v>0.0</v>
       </c>
-      <c r="J68" s="11"/>
+      <c r="J68" s="11">
+        <v>1.0</v>
+      </c>
       <c r="K68" s="11">
         <v>3.0</v>
       </c>
-      <c r="L68" s="11"/>
+      <c r="L68" s="11">
+        <v>4.0</v>
+      </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11">
         <v>0.0</v>
@@ -5686,10 +5792,10 @@
         <v>0.0</v>
       </c>
       <c r="C69" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D69" s="17">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E69" s="17">
         <v>4.0</v>
@@ -5706,11 +5812,15 @@
       <c r="I69" s="17">
         <v>0.0</v>
       </c>
-      <c r="J69" s="17"/>
+      <c r="J69" s="17">
+        <v>1.0</v>
+      </c>
       <c r="K69" s="17">
         <v>3.0</v>
       </c>
-      <c r="L69" s="17"/>
+      <c r="L69" s="17">
+        <v>4.0</v>
+      </c>
       <c r="M69" s="17"/>
       <c r="N69" s="17">
         <v>0.0</v>
@@ -5770,11 +5880,15 @@
       <c r="I70" s="11">
         <v>0.0</v>
       </c>
-      <c r="J70" s="13"/>
+      <c r="J70" s="11">
+        <v>2.0</v>
+      </c>
       <c r="K70" s="11">
         <v>4.0</v>
       </c>
-      <c r="L70" s="13"/>
+      <c r="L70" s="11">
+        <v>4.0</v>
+      </c>
       <c r="M70" s="13"/>
       <c r="N70" s="11">
         <v>0.0</v>
@@ -5832,11 +5946,15 @@
       <c r="I71" s="33">
         <v>0.0</v>
       </c>
-      <c r="J71" s="34"/>
+      <c r="J71" s="33">
+        <v>2.0</v>
+      </c>
       <c r="K71" s="33">
         <v>4.0</v>
       </c>
-      <c r="L71" s="34"/>
+      <c r="L71" s="33">
+        <v>4.0</v>
+      </c>
       <c r="M71" s="34"/>
       <c r="N71" s="33">
         <v>0.0</v>
@@ -34447,10 +34565,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
@@ -34458,3779 +34573,584 @@
       <c r="A1" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="40" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="39" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="40" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="39" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="39" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="41" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="40" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="39" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="40" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="39" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="40" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="39" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="40" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="39" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="40" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="39" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="40" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="39" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="40" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="39" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="40" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="39" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="40" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="39" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="39" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="40" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="39" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="40" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="39" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="40" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="39" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="40" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="39" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="40" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="39" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="40" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="39" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="40" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="39" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="40" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="39" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="40" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="39" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="40" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="39" t="s">
+    </row>
+    <row r="50">
+      <c r="A50" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="40" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="39" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="40" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="39" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="40" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="39" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="40" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="39" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B59" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="9" t="s">
+    </row>
+    <row r="60">
+      <c r="A60" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="39" t="s">
+    </row>
+    <row r="61">
+      <c r="A61" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="40" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="39" t="s">
+    </row>
+    <row r="63">
+      <c r="A63" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="40" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="39" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="40" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="39" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="40" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="39" t="s">
+    </row>
+    <row r="69">
+      <c r="A69" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="40" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
     </row>
     <row r="72">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
-      <c r="T95" s="15"/>
-      <c r="U95" s="15"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
-      <c r="S97" s="15"/>
-      <c r="T97" s="15"/>
-      <c r="U97" s="15"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="15"/>
-      <c r="U98" s="15"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
-      <c r="T100" s="15"/>
-      <c r="U100" s="15"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
-      <c r="U102" s="15"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
-      <c r="T103" s="15"/>
-      <c r="U103" s="15"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="T104" s="15"/>
-      <c r="U104" s="15"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="15"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="15"/>
-      <c r="S106" s="15"/>
-      <c r="T106" s="15"/>
-      <c r="U106" s="15"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
-      <c r="T107" s="15"/>
-      <c r="U107" s="15"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
-      <c r="U109" s="15"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="15"/>
-      <c r="U110" s="15"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="15"/>
-      <c r="S111" s="15"/>
-      <c r="T111" s="15"/>
-      <c r="U111" s="15"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="15"/>
-      <c r="S112" s="15"/>
-      <c r="T112" s="15"/>
-      <c r="U112" s="15"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
-      <c r="N113" s="15"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="15"/>
-      <c r="R113" s="15"/>
-      <c r="S113" s="15"/>
-      <c r="T113" s="15"/>
-      <c r="U113" s="15"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="15"/>
-      <c r="U114" s="15"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-      <c r="T115" s="15"/>
-      <c r="U115" s="15"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="15"/>
-      <c r="R116" s="15"/>
-      <c r="S116" s="15"/>
-      <c r="T116" s="15"/>
-      <c r="U116" s="15"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="15"/>
-      <c r="R117" s="15"/>
-      <c r="S117" s="15"/>
-      <c r="T117" s="15"/>
-      <c r="U117" s="15"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="15"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="15"/>
-      <c r="T118" s="15"/>
-      <c r="U118" s="15"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
-      <c r="T119" s="15"/>
-      <c r="U119" s="15"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
-      <c r="T120" s="15"/>
-      <c r="U120" s="15"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-      <c r="O121" s="15"/>
-      <c r="P121" s="15"/>
-      <c r="Q121" s="15"/>
-      <c r="R121" s="15"/>
-      <c r="S121" s="15"/>
-      <c r="T121" s="15"/>
-      <c r="U121" s="15"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="15"/>
-      <c r="U122" s="15"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="15"/>
-      <c r="S123" s="15"/>
-      <c r="T123" s="15"/>
-      <c r="U123" s="15"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="15"/>
-      <c r="S124" s="15"/>
-      <c r="T124" s="15"/>
-      <c r="U124" s="15"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="15"/>
-      <c r="U125" s="15"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-      <c r="S126" s="15"/>
-      <c r="T126" s="15"/>
-      <c r="U126" s="15"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="15"/>
-      <c r="R127" s="15"/>
-      <c r="S127" s="15"/>
-      <c r="T127" s="15"/>
-      <c r="U127" s="15"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
-      <c r="O128" s="15"/>
-      <c r="P128" s="15"/>
-      <c r="Q128" s="15"/>
-      <c r="R128" s="15"/>
-      <c r="S128" s="15"/>
-      <c r="T128" s="15"/>
-      <c r="U128" s="15"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
-      <c r="T129" s="15"/>
-      <c r="U129" s="15"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
-      <c r="P130" s="15"/>
-      <c r="Q130" s="15"/>
-      <c r="R130" s="15"/>
-      <c r="S130" s="15"/>
-      <c r="T130" s="15"/>
-      <c r="U130" s="15"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-      <c r="O131" s="15"/>
-      <c r="P131" s="15"/>
-      <c r="Q131" s="15"/>
-      <c r="R131" s="15"/>
-      <c r="S131" s="15"/>
-      <c r="T131" s="15"/>
-      <c r="U131" s="15"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="15"/>
-      <c r="R132" s="15"/>
-      <c r="S132" s="15"/>
-      <c r="T132" s="15"/>
-      <c r="U132" s="15"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="15"/>
-      <c r="S133" s="15"/>
-      <c r="T133" s="15"/>
-      <c r="U133" s="15"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="15"/>
-      <c r="S134" s="15"/>
-      <c r="T134" s="15"/>
-      <c r="U134" s="15"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-      <c r="O135" s="15"/>
-      <c r="P135" s="15"/>
-      <c r="Q135" s="15"/>
-      <c r="R135" s="15"/>
-      <c r="S135" s="15"/>
-      <c r="T135" s="15"/>
-      <c r="U135" s="15"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-      <c r="S136" s="15"/>
-      <c r="T136" s="15"/>
-      <c r="U136" s="15"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15"/>
-      <c r="O137" s="15"/>
-      <c r="P137" s="15"/>
-      <c r="Q137" s="15"/>
-      <c r="R137" s="15"/>
-      <c r="S137" s="15"/>
-      <c r="T137" s="15"/>
-      <c r="U137" s="15"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-      <c r="T138" s="15"/>
-      <c r="U138" s="15"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
-      <c r="P139" s="15"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="15"/>
-      <c r="S139" s="15"/>
-      <c r="T139" s="15"/>
-      <c r="U139" s="15"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="15"/>
-      <c r="O140" s="15"/>
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="15"/>
-      <c r="S140" s="15"/>
-      <c r="T140" s="15"/>
-      <c r="U140" s="15"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
-      <c r="O141" s="15"/>
-      <c r="P141" s="15"/>
-      <c r="Q141" s="15"/>
-      <c r="R141" s="15"/>
-      <c r="S141" s="15"/>
-      <c r="T141" s="15"/>
-      <c r="U141" s="15"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-      <c r="O142" s="15"/>
-      <c r="P142" s="15"/>
-      <c r="Q142" s="15"/>
-      <c r="R142" s="15"/>
-      <c r="S142" s="15"/>
-      <c r="T142" s="15"/>
-      <c r="U142" s="15"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15"/>
-      <c r="O143" s="15"/>
-      <c r="P143" s="15"/>
-      <c r="Q143" s="15"/>
-      <c r="R143" s="15"/>
-      <c r="S143" s="15"/>
-      <c r="T143" s="15"/>
-      <c r="U143" s="15"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
-      <c r="P144" s="15"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="15"/>
-      <c r="S144" s="15"/>
-      <c r="T144" s="15"/>
-      <c r="U144" s="15"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-      <c r="P145" s="15"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="15"/>
-      <c r="S145" s="15"/>
-      <c r="T145" s="15"/>
-      <c r="U145" s="15"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
-      <c r="P146" s="15"/>
-      <c r="Q146" s="15"/>
-      <c r="R146" s="15"/>
-      <c r="S146" s="15"/>
-      <c r="T146" s="15"/>
-      <c r="U146" s="15"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="15"/>
-      <c r="P147" s="15"/>
-      <c r="Q147" s="15"/>
-      <c r="R147" s="15"/>
-      <c r="S147" s="15"/>
-      <c r="T147" s="15"/>
-      <c r="U147" s="15"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="15"/>
-      <c r="P148" s="15"/>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="15"/>
-      <c r="S148" s="15"/>
-      <c r="T148" s="15"/>
-      <c r="U148" s="15"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="15"/>
-      <c r="P149" s="15"/>
-      <c r="Q149" s="15"/>
-      <c r="R149" s="15"/>
-      <c r="S149" s="15"/>
-      <c r="T149" s="15"/>
-      <c r="U149" s="15"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
-      <c r="P150" s="15"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="15"/>
-      <c r="S150" s="15"/>
-      <c r="T150" s="15"/>
-      <c r="U150" s="15"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="15"/>
-      <c r="O151" s="15"/>
-      <c r="P151" s="15"/>
-      <c r="Q151" s="15"/>
-      <c r="R151" s="15"/>
-      <c r="S151" s="15"/>
-      <c r="T151" s="15"/>
-      <c r="U151" s="15"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
-      <c r="P152" s="15"/>
-      <c r="Q152" s="15"/>
-      <c r="R152" s="15"/>
-      <c r="S152" s="15"/>
-      <c r="T152" s="15"/>
-      <c r="U152" s="15"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-      <c r="N153" s="15"/>
-      <c r="O153" s="15"/>
-      <c r="P153" s="15"/>
-      <c r="Q153" s="15"/>
-      <c r="R153" s="15"/>
-      <c r="S153" s="15"/>
-      <c r="T153" s="15"/>
-      <c r="U153" s="15"/>
+      <c r="A72" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$B$72">
+    <sortState ref="A1:B72">
+      <sortCondition ref="A1:A72"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/utils/datas/Wak'Team.xlsx
+++ b/utils/datas/Wak'Team.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Notes"/>
-    <sheet r:id="rId2" sheetId="2" name="Rôles"/>
+    <sheet r:id="rId2" sheetId="2" name="Roles"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Notes!$A$1:$X$71</definedName>
@@ -1498,7 +1498,7 @@
       <c r="AA1" s="17"/>
       <c r="AB1" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="AA2" s="17"/>
       <c r="AB2" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="43.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="AA4" s="17"/>
       <c r="AB4" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A7" s="23" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="43.5" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="30.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="2">
       <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
@@ -34727,8 +34727,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="144.29071428571427" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="88.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -34739,7 +34739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="118.5" customFormat="1" s="2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -34747,7 +34747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="118.5" customFormat="1" s="2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -34755,7 +34755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="118.5" customFormat="1" s="2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -34763,7 +34763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="193.5" customFormat="1" s="2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="143.25" customFormat="1" s="2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -34779,7 +34779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="156" customFormat="1" s="2">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -34787,7 +34787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="93" customFormat="1" s="2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="93" customFormat="1" s="2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -34803,7 +34803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="130.5" customFormat="1" s="2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -34811,7 +34811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="118.5" customFormat="1" s="2">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="118.5" customFormat="1" s="2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -34827,7 +34827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="93" customFormat="1" s="2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -34835,7 +34835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="231" customFormat="1" s="2">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -34843,7 +34843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="168" customFormat="1" s="2">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -34851,7 +34851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="168" customFormat="1" s="2">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="118.5" customFormat="1" s="2">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="105.75" customFormat="1" s="2">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="68.25" customFormat="1" s="2">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
